--- a/output/table2.xlsx
+++ b/output/table2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="102" uniqueCount="11">
   <si>
     <t>Panel 1: All Gymnasts</t>
   </si>
@@ -55,7 +55,1447 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="#0.00"/>
   </numFmts>
-  <fonts count="181">
+  <fonts count="541">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -789,7 +2229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="181">
+  <borders count="541">
     <border>
       <left/>
       <right/>
@@ -2057,11 +3497,2531 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="541">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2780,6 +6740,1446 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="180" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="181" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="182" fillId="0" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="183" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="184" fillId="0" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="185" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="186" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="187" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="188" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="189" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="190" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="191" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="192" fillId="0" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="193" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="194" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="195" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="196" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="197" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="198" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="199" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="200" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="201" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="202" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="203" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="204" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="205" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="206" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="207" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="208" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="209" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="210" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="211" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="212" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="213" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="214" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="215" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="216" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="217" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="218" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="219" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="220" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="221" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="222" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="223" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="224" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="225" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="226" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="227" fillId="0" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="228" fillId="0" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="229" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="230" fillId="0" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="231" fillId="0" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="232" fillId="0" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="233" fillId="0" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="234" fillId="0" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="235" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="236" fillId="0" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="237" fillId="0" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="238" fillId="0" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="239" fillId="0" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="240" fillId="0" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="241" fillId="0" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="242" fillId="0" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="243" fillId="0" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="244" fillId="0" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="245" fillId="0" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="246" fillId="0" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="247" fillId="0" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="248" fillId="0" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="249" fillId="0" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="250" fillId="0" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="251" fillId="0" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="252" fillId="0" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="253" fillId="0" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="254" fillId="0" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="255" fillId="0" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="256" fillId="0" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="257" fillId="0" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="258" fillId="0" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="259" fillId="0" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="260" fillId="0" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="261" fillId="0" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="262" fillId="0" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="263" fillId="0" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="264" fillId="0" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="265" fillId="0" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="266" fillId="0" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="267" fillId="0" borderId="267" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="268" fillId="0" borderId="268" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="269" fillId="0" borderId="269" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="270" fillId="0" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="271" fillId="0" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="272" fillId="0" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="273" fillId="0" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="274" fillId="0" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="275" fillId="0" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="276" fillId="0" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="277" fillId="0" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="278" fillId="0" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="279" fillId="0" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="280" fillId="0" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="281" fillId="0" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="282" fillId="0" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="283" fillId="0" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="284" fillId="0" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="285" fillId="0" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="286" fillId="0" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="287" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="288" fillId="0" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="289" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="290" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="291" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="292" fillId="0" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="293" fillId="0" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="294" fillId="0" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="295" fillId="0" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="296" fillId="0" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="297" fillId="0" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="298" fillId="0" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="299" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="300" fillId="0" borderId="300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="301" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="302" fillId="0" borderId="302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="303" fillId="0" borderId="303" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="304" fillId="0" borderId="304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="305" fillId="0" borderId="305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="306" fillId="0" borderId="306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="307" fillId="0" borderId="307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="308" fillId="0" borderId="308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="309" fillId="0" borderId="309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="310" fillId="0" borderId="310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="311" fillId="0" borderId="311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="312" fillId="0" borderId="312" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="313" fillId="0" borderId="313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="314" fillId="0" borderId="314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="315" fillId="0" borderId="315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="316" fillId="0" borderId="316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="317" fillId="0" borderId="317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="318" fillId="0" borderId="318" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="319" fillId="0" borderId="319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="320" fillId="0" borderId="320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="321" fillId="0" borderId="321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="322" fillId="0" borderId="322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="323" fillId="0" borderId="323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="324" fillId="0" borderId="324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="325" fillId="0" borderId="325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="326" fillId="0" borderId="326" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="327" fillId="0" borderId="327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="328" fillId="0" borderId="328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="329" fillId="0" borderId="329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="330" fillId="0" borderId="330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="331" fillId="0" borderId="331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="332" fillId="0" borderId="332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="333" fillId="0" borderId="333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="334" fillId="0" borderId="334" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="335" fillId="0" borderId="335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="336" fillId="0" borderId="336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="337" fillId="0" borderId="337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="338" fillId="0" borderId="338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="339" fillId="0" borderId="339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="340" fillId="0" borderId="340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="341" fillId="0" borderId="341" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="342" fillId="0" borderId="342" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="343" fillId="0" borderId="343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="344" fillId="0" borderId="344" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="345" fillId="0" borderId="345" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="346" fillId="0" borderId="346" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="347" fillId="0" borderId="347" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="348" fillId="0" borderId="348" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="349" fillId="0" borderId="349" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="350" fillId="0" borderId="350" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="351" fillId="0" borderId="351" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="352" fillId="0" borderId="352" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="353" fillId="0" borderId="353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="354" fillId="0" borderId="354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="355" fillId="0" borderId="355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="356" fillId="0" borderId="356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="357" fillId="0" borderId="357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="358" fillId="0" borderId="358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="359" fillId="0" borderId="359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="360" fillId="0" borderId="360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="361" fillId="0" borderId="361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="362" fillId="0" borderId="362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="363" fillId="0" borderId="363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="364" fillId="0" borderId="364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="365" fillId="0" borderId="365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="366" fillId="0" borderId="366" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="367" fillId="0" borderId="367" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="368" fillId="0" borderId="368" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="369" fillId="0" borderId="369" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="370" fillId="0" borderId="370" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="371" fillId="0" borderId="371" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="372" fillId="0" borderId="372" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="373" fillId="0" borderId="373" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="374" fillId="0" borderId="374" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="375" fillId="0" borderId="375" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="376" fillId="0" borderId="376" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="377" fillId="0" borderId="377" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="378" fillId="0" borderId="378" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="379" fillId="0" borderId="379" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="380" fillId="0" borderId="380" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="381" fillId="0" borderId="381" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="382" fillId="0" borderId="382" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="383" fillId="0" borderId="383" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="384" fillId="0" borderId="384" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="385" fillId="0" borderId="385" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="386" fillId="0" borderId="386" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="387" fillId="0" borderId="387" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="388" fillId="0" borderId="388" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="389" fillId="0" borderId="389" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="390" fillId="0" borderId="390" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="391" fillId="0" borderId="391" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="392" fillId="0" borderId="392" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="393" fillId="0" borderId="393" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="394" fillId="0" borderId="394" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="395" fillId="0" borderId="395" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="396" fillId="0" borderId="396" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="397" fillId="0" borderId="397" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="398" fillId="0" borderId="398" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="399" fillId="0" borderId="399" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="400" fillId="0" borderId="400" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="401" fillId="0" borderId="401" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="402" fillId="0" borderId="402" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="403" fillId="0" borderId="403" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="404" fillId="0" borderId="404" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="405" fillId="0" borderId="405" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="406" fillId="0" borderId="406" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="407" fillId="0" borderId="407" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="408" fillId="0" borderId="408" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="409" fillId="0" borderId="409" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="410" fillId="0" borderId="410" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="411" fillId="0" borderId="411" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="412" fillId="0" borderId="412" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="413" fillId="0" borderId="413" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="414" fillId="0" borderId="414" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="415" fillId="0" borderId="415" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="416" fillId="0" borderId="416" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="417" fillId="0" borderId="417" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="418" fillId="0" borderId="418" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="419" fillId="0" borderId="419" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="420" fillId="0" borderId="420" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="421" fillId="0" borderId="421" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="422" fillId="0" borderId="422" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="423" fillId="0" borderId="423" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="424" fillId="0" borderId="424" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="425" fillId="0" borderId="425" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="426" fillId="0" borderId="426" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="427" fillId="0" borderId="427" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="428" fillId="0" borderId="428" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="429" fillId="0" borderId="429" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="430" fillId="0" borderId="430" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="431" fillId="0" borderId="431" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="432" fillId="0" borderId="432" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="433" fillId="0" borderId="433" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="434" fillId="0" borderId="434" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="435" fillId="0" borderId="435" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="436" fillId="0" borderId="436" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="437" fillId="0" borderId="437" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="438" fillId="0" borderId="438" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="439" fillId="0" borderId="439" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="440" fillId="0" borderId="440" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="441" fillId="0" borderId="441" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="442" fillId="0" borderId="442" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="443" fillId="0" borderId="443" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="444" fillId="0" borderId="444" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="445" fillId="0" borderId="445" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="446" fillId="0" borderId="446" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="447" fillId="0" borderId="447" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="448" fillId="0" borderId="448" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="449" fillId="0" borderId="449" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="450" fillId="0" borderId="450" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="451" fillId="0" borderId="451" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="452" fillId="0" borderId="452" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="453" fillId="0" borderId="453" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="454" fillId="0" borderId="454" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="455" fillId="0" borderId="455" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="456" fillId="0" borderId="456" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="457" fillId="0" borderId="457" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="458" fillId="0" borderId="458" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="459" fillId="0" borderId="459" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="460" fillId="0" borderId="460" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="461" fillId="0" borderId="461" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="462" fillId="0" borderId="462" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="463" fillId="0" borderId="463" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="464" fillId="0" borderId="464" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="465" fillId="0" borderId="465" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="466" fillId="0" borderId="466" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="467" fillId="0" borderId="467" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="468" fillId="0" borderId="468" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="469" fillId="0" borderId="469" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="470" fillId="0" borderId="470" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="471" fillId="0" borderId="471" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="472" fillId="0" borderId="472" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="473" fillId="0" borderId="473" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="474" fillId="0" borderId="474" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="475" fillId="0" borderId="475" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="476" fillId="0" borderId="476" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="477" fillId="0" borderId="477" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="478" fillId="0" borderId="478" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="479" fillId="0" borderId="479" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="480" fillId="0" borderId="480" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="481" fillId="0" borderId="481" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="482" fillId="0" borderId="482" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="483" fillId="0" borderId="483" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="484" fillId="0" borderId="484" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="485" fillId="0" borderId="485" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="486" fillId="0" borderId="486" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="487" fillId="0" borderId="487" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="488" fillId="0" borderId="488" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="489" fillId="0" borderId="489" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="490" fillId="0" borderId="490" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="491" fillId="0" borderId="491" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="492" fillId="0" borderId="492" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="493" fillId="0" borderId="493" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="494" fillId="0" borderId="494" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="495" fillId="0" borderId="495" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="496" fillId="0" borderId="496" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="497" fillId="0" borderId="497" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="498" fillId="0" borderId="498" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="499" fillId="0" borderId="499" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="500" fillId="0" borderId="500" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="501" fillId="0" borderId="501" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="502" fillId="0" borderId="502" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="503" fillId="0" borderId="503" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="504" fillId="0" borderId="504" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="505" fillId="0" borderId="505" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="506" fillId="0" borderId="506" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="507" fillId="0" borderId="507" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="508" fillId="0" borderId="508" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="509" fillId="0" borderId="509" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="510" fillId="0" borderId="510" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="511" fillId="0" borderId="511" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="512" fillId="0" borderId="512" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="513" fillId="0" borderId="513" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="514" fillId="0" borderId="514" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="515" fillId="0" borderId="515" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="516" fillId="0" borderId="516" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="517" fillId="0" borderId="517" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="518" fillId="0" borderId="518" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="519" fillId="0" borderId="519" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="520" fillId="0" borderId="520" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="521" fillId="0" borderId="521" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="522" fillId="0" borderId="522" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="523" fillId="0" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="524" fillId="0" borderId="524" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="525" fillId="0" borderId="525" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="526" fillId="0" borderId="526" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="527" fillId="0" borderId="527" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="528" fillId="0" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="529" fillId="0" borderId="529" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="530" fillId="0" borderId="530" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="531" fillId="0" borderId="531" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="532" fillId="0" borderId="532" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="533" fillId="0" borderId="533" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="534" fillId="0" borderId="534" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="535" fillId="0" borderId="535" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="536" fillId="0" borderId="536" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="537" fillId="0" borderId="537" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="538" fillId="0" borderId="538" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="539" fillId="0" borderId="539" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="540" fillId="0" borderId="540" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2824,111 +8224,111 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="91">
-        <v>9.6391804126895</v>
-      </c>
-      <c r="C3" s="92">
-        <v>9.5230784480145427</v>
-      </c>
-      <c r="D3" s="93">
-        <v>9.5490278913837763</v>
-      </c>
-      <c r="E3" s="94">
-        <v>9.6360224743253156</v>
-      </c>
-      <c r="F3" s="95">
-        <v>9.586082574146138</v>
+      <c r="B3" s="451">
+        <v>9.6262788172613547</v>
+      </c>
+      <c r="C3" s="452">
+        <v>9.4985233712130785</v>
+      </c>
+      <c r="D3" s="453">
+        <v>9.5310703563207682</v>
+      </c>
+      <c r="E3" s="454">
+        <v>9.6185530142109492</v>
+      </c>
+      <c r="F3" s="455">
+        <v>9.5677677699685333</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="96">
-        <v>0.25796401533840307</v>
-      </c>
-      <c r="C4" s="97">
-        <v>0.49292093078291382</v>
-      </c>
-      <c r="D4" s="98">
-        <v>0.40527700401808497</v>
-      </c>
-      <c r="E4" s="99">
-        <v>0.36832135541410371</v>
-      </c>
-      <c r="F4" s="100">
-        <v>0.39503591391446152</v>
+      <c r="B4" s="456">
+        <v>0.26629049823736922</v>
+      </c>
+      <c r="C4" s="457">
+        <v>0.50950401995643524</v>
+      </c>
+      <c r="D4" s="458">
+        <v>0.41699738504902423</v>
+      </c>
+      <c r="E4" s="459">
+        <v>0.37779434640592702</v>
+      </c>
+      <c r="F4" s="460">
+        <v>0.40737844003334822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="101">
-        <v>9.7059091524930619</v>
-      </c>
-      <c r="C5" s="102">
-        <v>9.6247883129685139</v>
-      </c>
-      <c r="D5" s="103">
-        <v>9.6041886079138195</v>
-      </c>
-      <c r="E5" s="104">
-        <v>9.7213547017138549</v>
-      </c>
-      <c r="F5" s="105">
-        <v>9.6721925969287472</v>
+      <c r="B5" s="461">
+        <v>9.6995065786728727</v>
+      </c>
+      <c r="C5" s="462">
+        <v>9.6121464512722721</v>
+      </c>
+      <c r="D5" s="463">
+        <v>9.595921749324031</v>
+      </c>
+      <c r="E5" s="464">
+        <v>9.709897872639381</v>
+      </c>
+      <c r="F5" s="465">
+        <v>9.6622813323634009</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="106">
-        <v>0.23174365860492571</v>
-      </c>
-      <c r="C6" s="107">
-        <v>0.42797971532862361</v>
-      </c>
-      <c r="D6" s="108">
-        <v>0.36049745425731022</v>
-      </c>
-      <c r="E6" s="109">
-        <v>0.33756253849701229</v>
-      </c>
-      <c r="F6" s="110">
-        <v>0.34124302089971958</v>
+      <c r="B6" s="466">
+        <v>0.23880230199483959</v>
+      </c>
+      <c r="C6" s="467">
+        <v>0.45160002240660252</v>
+      </c>
+      <c r="D6" s="468">
+        <v>0.36758700082789431</v>
+      </c>
+      <c r="E6" s="469">
+        <v>0.33722675120036089</v>
+      </c>
+      <c r="F6" s="470">
+        <v>0.35116915193077392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="111">
-        <v>9.6557394155248577</v>
-      </c>
-      <c r="C7" s="112">
-        <v>9.5474181264606557</v>
-      </c>
-      <c r="D7" s="113">
-        <v>9.5720287095896754</v>
-      </c>
-      <c r="E7" s="114">
-        <v>9.6541143874693134</v>
-      </c>
-      <c r="F7" s="115">
-        <v>9.6072338899952197</v>
+      <c r="B7" s="471">
+        <v>9.6444806606527678</v>
+      </c>
+      <c r="C7" s="472">
+        <v>9.5260273873515207</v>
+      </c>
+      <c r="D7" s="473">
+        <v>9.5564048631271312</v>
+      </c>
+      <c r="E7" s="474">
+        <v>9.6381783656526707</v>
+      </c>
+      <c r="F7" s="475">
+        <v>9.5911624582714943</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="116">
-        <v>0.25118517872147778</v>
-      </c>
-      <c r="C8" s="117">
-        <v>0.4784542331536642</v>
-      </c>
-      <c r="D8" s="118">
-        <v>0.39048210145470807</v>
-      </c>
-      <c r="E8" s="119">
-        <v>0.36771558401539112</v>
-      </c>
-      <c r="F8" s="120">
-        <v>0.38385263344989612</v>
+      <c r="B8" s="476">
+        <v>0.25858677687265907</v>
+      </c>
+      <c r="C8" s="477">
+        <v>0.49589567389843331</v>
+      </c>
+      <c r="D8" s="478">
+        <v>0.40160827568108193</v>
+      </c>
+      <c r="E8" s="479">
+        <v>0.37285527634968341</v>
+      </c>
+      <c r="F8" s="480">
+        <v>0.39496689732178619</v>
       </c>
     </row>
     <row r="10">
@@ -2940,111 +8340,111 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="121">
-        <v>9.7213286802927801</v>
-      </c>
-      <c r="C11" s="122">
-        <v>9.6619935918992415</v>
-      </c>
-      <c r="D11" s="123">
-        <v>9.6592059847152711</v>
-      </c>
-      <c r="E11" s="124">
-        <v>9.7197856243905871</v>
-      </c>
-      <c r="F11" s="125">
-        <v>9.6901845551774741</v>
+      <c r="B11" s="481">
+        <v>9.7158729720477091</v>
+      </c>
+      <c r="C11" s="482">
+        <v>9.6522917370928454</v>
+      </c>
+      <c r="D11" s="483">
+        <v>9.6504889986637696</v>
+      </c>
+      <c r="E11" s="484">
+        <v>9.7102592437321906</v>
+      </c>
+      <c r="F11" s="485">
+        <v>9.6817795138661076</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="126">
-        <v>0.1792917417839377</v>
-      </c>
-      <c r="C12" s="127">
-        <v>0.36205200373424112</v>
-      </c>
-      <c r="D12" s="128">
-        <v>0.30041924047249652</v>
-      </c>
-      <c r="E12" s="129">
-        <v>0.30067857631884359</v>
-      </c>
-      <c r="F12" s="130">
-        <v>0.29575990026060572</v>
+      <c r="B12" s="486">
+        <v>0.1835039086205251</v>
+      </c>
+      <c r="C12" s="487">
+        <v>0.36638046840985983</v>
+      </c>
+      <c r="D12" s="488">
+        <v>0.30744455013892441</v>
+      </c>
+      <c r="E12" s="489">
+        <v>0.3144581307202618</v>
+      </c>
+      <c r="F12" s="490">
+        <v>0.30321582241459177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="131">
-        <v>9.7559224116624677</v>
-      </c>
-      <c r="C13" s="132">
-        <v>9.7041355708345254</v>
-      </c>
-      <c r="D13" s="133">
-        <v>9.6738042952051408</v>
-      </c>
-      <c r="E13" s="134">
-        <v>9.7669488120972758</v>
-      </c>
-      <c r="F13" s="135">
-        <v>9.7315173554660763</v>
+      <c r="B13" s="491">
+        <v>9.7536332184173542</v>
+      </c>
+      <c r="C13" s="492">
+        <v>9.6980953895717956</v>
+      </c>
+      <c r="D13" s="493">
+        <v>9.6708576311076584</v>
+      </c>
+      <c r="E13" s="494">
+        <v>9.7611590072504466</v>
+      </c>
+      <c r="F13" s="495">
+        <v>9.7270729845677035</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="136">
-        <v>0.1796300794420275</v>
-      </c>
-      <c r="C14" s="137">
-        <v>0.34618180346929289</v>
-      </c>
-      <c r="D14" s="138">
-        <v>0.29200602477526583</v>
-      </c>
-      <c r="E14" s="139">
-        <v>0.2946794711811257</v>
-      </c>
-      <c r="F14" s="140">
-        <v>0.28048423015781981</v>
+      <c r="B14" s="496">
+        <v>0.18350999306875629</v>
+      </c>
+      <c r="C14" s="497">
+        <v>0.36827594017943499</v>
+      </c>
+      <c r="D14" s="498">
+        <v>0.29395556844565418</v>
+      </c>
+      <c r="E14" s="499">
+        <v>0.27927946408178511</v>
+      </c>
+      <c r="F14" s="500">
+        <v>0.28379594196863589</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="141">
-        <v>9.7281819387260668</v>
-      </c>
-      <c r="C15" s="142">
-        <v>9.6695548550358357</v>
-      </c>
-      <c r="D15" s="143">
-        <v>9.6670916149214126</v>
-      </c>
-      <c r="E15" s="144">
-        <v>9.7287003881941736</v>
-      </c>
-      <c r="F15" s="145">
-        <v>9.6983090516154835</v>
+      <c r="B15" s="501">
+        <v>9.723498025870823</v>
+      </c>
+      <c r="C15" s="502">
+        <v>9.6612851288534678</v>
+      </c>
+      <c r="D15" s="503">
+        <v>9.6598321843571711</v>
+      </c>
+      <c r="E15" s="504">
+        <v>9.7199659287550624</v>
+      </c>
+      <c r="F15" s="505">
+        <v>9.6910642596827188</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="146">
-        <v>0.17999945138972839</v>
-      </c>
-      <c r="C16" s="147">
-        <v>0.36022363050628531</v>
-      </c>
-      <c r="D16" s="148">
-        <v>0.29501979940211198</v>
-      </c>
-      <c r="E16" s="149">
-        <v>0.30877966315912492</v>
-      </c>
-      <c r="F16" s="150">
-        <v>0.29511323759005209</v>
+      <c r="B16" s="506">
+        <v>0.18292438521802901</v>
+      </c>
+      <c r="C16" s="507">
+        <v>0.36787649978208831</v>
+      </c>
+      <c r="D16" s="508">
+        <v>0.30031803790445227</v>
+      </c>
+      <c r="E16" s="509">
+        <v>0.31184518996317839</v>
+      </c>
+      <c r="F16" s="510">
+        <v>0.30010201662005881</v>
       </c>
     </row>
     <row r="18">
@@ -3056,111 +8456,111 @@
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="151">
-        <v>9.398393281224994</v>
-      </c>
-      <c r="C19" s="152">
-        <v>9.1169806207634352</v>
-      </c>
-      <c r="D19" s="153">
-        <v>9.2283144006957318</v>
-      </c>
-      <c r="E19" s="154">
-        <v>9.3867572306159488</v>
-      </c>
-      <c r="F19" s="155">
-        <v>9.2805353092756864</v>
+      <c r="B19" s="511">
+        <v>9.3761056774185612</v>
+      </c>
+      <c r="C19" s="512">
+        <v>9.0691393206063839</v>
+      </c>
+      <c r="D19" s="513">
+        <v>9.2002798917463267</v>
+      </c>
+      <c r="E19" s="514">
+        <v>9.3596483718988903</v>
+      </c>
+      <c r="F19" s="515">
+        <v>9.2491819905256865</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="156">
-        <v>0.29937194728338051</v>
-      </c>
-      <c r="C20" s="157">
-        <v>0.5905591830682958</v>
-      </c>
-      <c r="D20" s="158">
-        <v>0.4913981229110338</v>
-      </c>
-      <c r="E20" s="159">
-        <v>0.43281570388803942</v>
-      </c>
-      <c r="F20" s="160">
-        <v>0.48184707759651929</v>
+      <c r="B20" s="516">
+        <v>0.2998234963363996</v>
+      </c>
+      <c r="C20" s="517">
+        <v>0.59940468810912972</v>
+      </c>
+      <c r="D20" s="518">
+        <v>0.49479843076328178</v>
+      </c>
+      <c r="E20" s="519">
+        <v>0.41923087500805201</v>
+      </c>
+      <c r="F20" s="520">
+        <v>0.4847390578693534</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="161">
-        <v>9.4521571780318645</v>
-      </c>
-      <c r="C21" s="162">
-        <v>9.1716974370858892</v>
-      </c>
-      <c r="D21" s="163">
-        <v>9.2891776229205885</v>
-      </c>
-      <c r="E21" s="164">
-        <v>9.4796474626940537</v>
-      </c>
-      <c r="F21" s="165">
-        <v>9.3670254922407565</v>
+      <c r="B21" s="521">
+        <v>9.4317848373450399</v>
+      </c>
+      <c r="C21" s="522">
+        <v>9.1420742687971703</v>
+      </c>
+      <c r="D21" s="523">
+        <v>9.2671501587682208</v>
+      </c>
+      <c r="E21" s="524">
+        <v>9.4434566409625162</v>
+      </c>
+      <c r="F21" s="525">
+        <v>9.3384449059643124</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="166">
-        <v>0.29232595807428818</v>
-      </c>
-      <c r="C22" s="167">
-        <v>0.55123899290729783</v>
-      </c>
-      <c r="D22" s="168">
-        <v>0.459610964439714</v>
-      </c>
-      <c r="E22" s="169">
-        <v>0.43406089728606001</v>
-      </c>
-      <c r="F22" s="170">
-        <v>0.44674317027485461</v>
+      <c r="B22" s="526">
+        <v>0.29399819105127639</v>
+      </c>
+      <c r="C22" s="527">
+        <v>0.56271951795506725</v>
+      </c>
+      <c r="D22" s="528">
+        <v>0.46517644172356748</v>
+      </c>
+      <c r="E22" s="529">
+        <v>0.4636980552779878</v>
+      </c>
+      <c r="F22" s="530">
+        <v>0.45972707198778362</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="171">
-        <v>9.4030914534676899</v>
-      </c>
-      <c r="C23" s="172">
-        <v>9.1192248899135002</v>
-      </c>
-      <c r="D23" s="173">
-        <v>9.2402198319010278</v>
-      </c>
-      <c r="E23" s="174">
-        <v>9.3937756171708457</v>
-      </c>
-      <c r="F23" s="175">
-        <v>9.2890571195611855</v>
+      <c r="B23" s="531">
+        <v>9.3816418056866642</v>
+      </c>
+      <c r="C23" s="532">
+        <v>9.0739350954442131</v>
+      </c>
+      <c r="D23" s="533">
+        <v>9.2122536474898382</v>
+      </c>
+      <c r="E23" s="534">
+        <v>9.3655745496664355</v>
+      </c>
+      <c r="F23" s="535">
+        <v>9.2582570849463224</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="176">
-        <v>0.29667071966902192</v>
-      </c>
-      <c r="C24" s="177">
-        <v>0.58388619082825155</v>
-      </c>
-      <c r="D24" s="178">
-        <v>0.48914491820846451</v>
-      </c>
-      <c r="E24" s="179">
-        <v>0.43266328578446228</v>
-      </c>
-      <c r="F24" s="180">
-        <v>0.47709825129063271</v>
+      <c r="B24" s="536">
+        <v>0.29688259815856449</v>
+      </c>
+      <c r="C24" s="537">
+        <v>0.59161566582926539</v>
+      </c>
+      <c r="D24" s="538">
+        <v>0.49381280403838768</v>
+      </c>
+      <c r="E24" s="539">
+        <v>0.42621921446863292</v>
+      </c>
+      <c r="F24" s="540">
+        <v>0.48129547266071732</v>
       </c>
     </row>
   </sheetData>

--- a/output/table2.xlsx
+++ b/output/table2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="102" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="136" uniqueCount="11">
   <si>
     <t>Panel 1: All Gymnasts</t>
   </si>
@@ -55,7 +55,727 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="#0.00"/>
   </numFmts>
-  <fonts count="541">
+  <fonts count="721">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2229,7 +2949,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="541">
+  <borders count="721">
     <border>
       <left/>
       <right/>
@@ -6017,11 +6737,1271 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="541">
+  <cellXfs count="721">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -8180,6 +10160,726 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="540" fillId="0" borderId="540" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="541" fillId="0" borderId="541" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="542" fillId="0" borderId="542" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="543" fillId="0" borderId="543" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="544" fillId="0" borderId="544" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="545" fillId="0" borderId="545" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="546" fillId="0" borderId="546" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="547" fillId="0" borderId="547" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="548" fillId="0" borderId="548" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="549" fillId="0" borderId="549" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="550" fillId="0" borderId="550" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="551" fillId="0" borderId="551" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="552" fillId="0" borderId="552" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="553" fillId="0" borderId="553" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="554" fillId="0" borderId="554" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="555" fillId="0" borderId="555" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="556" fillId="0" borderId="556" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="557" fillId="0" borderId="557" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="558" fillId="0" borderId="558" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="559" fillId="0" borderId="559" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="560" fillId="0" borderId="560" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="561" fillId="0" borderId="561" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="562" fillId="0" borderId="562" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="563" fillId="0" borderId="563" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="564" fillId="0" borderId="564" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="565" fillId="0" borderId="565" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="566" fillId="0" borderId="566" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="567" fillId="0" borderId="567" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="568" fillId="0" borderId="568" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="569" fillId="0" borderId="569" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="570" fillId="0" borderId="570" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="571" fillId="0" borderId="571" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="572" fillId="0" borderId="572" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="573" fillId="0" borderId="573" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="574" fillId="0" borderId="574" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="575" fillId="0" borderId="575" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="576" fillId="0" borderId="576" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="577" fillId="0" borderId="577" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="578" fillId="0" borderId="578" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="579" fillId="0" borderId="579" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="580" fillId="0" borderId="580" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="581" fillId="0" borderId="581" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="582" fillId="0" borderId="582" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="583" fillId="0" borderId="583" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="584" fillId="0" borderId="584" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="585" fillId="0" borderId="585" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="586" fillId="0" borderId="586" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="587" fillId="0" borderId="587" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="588" fillId="0" borderId="588" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="589" fillId="0" borderId="589" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="590" fillId="0" borderId="590" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="591" fillId="0" borderId="591" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="592" fillId="0" borderId="592" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="593" fillId="0" borderId="593" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="594" fillId="0" borderId="594" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="595" fillId="0" borderId="595" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="596" fillId="0" borderId="596" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="597" fillId="0" borderId="597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="598" fillId="0" borderId="598" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="599" fillId="0" borderId="599" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="600" fillId="0" borderId="600" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="601" fillId="0" borderId="601" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="602" fillId="0" borderId="602" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="603" fillId="0" borderId="603" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="604" fillId="0" borderId="604" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="605" fillId="0" borderId="605" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="606" fillId="0" borderId="606" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="607" fillId="0" borderId="607" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="608" fillId="0" borderId="608" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="609" fillId="0" borderId="609" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="610" fillId="0" borderId="610" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="611" fillId="0" borderId="611" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="612" fillId="0" borderId="612" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="613" fillId="0" borderId="613" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="614" fillId="0" borderId="614" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="615" fillId="0" borderId="615" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="616" fillId="0" borderId="616" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="617" fillId="0" borderId="617" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="618" fillId="0" borderId="618" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="619" fillId="0" borderId="619" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="620" fillId="0" borderId="620" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="621" fillId="0" borderId="621" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="622" fillId="0" borderId="622" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="623" fillId="0" borderId="623" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="624" fillId="0" borderId="624" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="625" fillId="0" borderId="625" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="626" fillId="0" borderId="626" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="627" fillId="0" borderId="627" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="628" fillId="0" borderId="628" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="629" fillId="0" borderId="629" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="630" fillId="0" borderId="630" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="631" fillId="0" borderId="631" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="632" fillId="0" borderId="632" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="633" fillId="0" borderId="633" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="634" fillId="0" borderId="634" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="635" fillId="0" borderId="635" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="636" fillId="0" borderId="636" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="637" fillId="0" borderId="637" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="638" fillId="0" borderId="638" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="639" fillId="0" borderId="639" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="640" fillId="0" borderId="640" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="641" fillId="0" borderId="641" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="642" fillId="0" borderId="642" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="643" fillId="0" borderId="643" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="644" fillId="0" borderId="644" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="645" fillId="0" borderId="645" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="646" fillId="0" borderId="646" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="647" fillId="0" borderId="647" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="648" fillId="0" borderId="648" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="649" fillId="0" borderId="649" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="650" fillId="0" borderId="650" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="651" fillId="0" borderId="651" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="652" fillId="0" borderId="652" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="653" fillId="0" borderId="653" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="654" fillId="0" borderId="654" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="655" fillId="0" borderId="655" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="656" fillId="0" borderId="656" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="657" fillId="0" borderId="657" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="658" fillId="0" borderId="658" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="659" fillId="0" borderId="659" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="660" fillId="0" borderId="660" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="661" fillId="0" borderId="661" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="662" fillId="0" borderId="662" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="663" fillId="0" borderId="663" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="664" fillId="0" borderId="664" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="665" fillId="0" borderId="665" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="666" fillId="0" borderId="666" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="667" fillId="0" borderId="667" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="668" fillId="0" borderId="668" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="669" fillId="0" borderId="669" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="670" fillId="0" borderId="670" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="671" fillId="0" borderId="671" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="672" fillId="0" borderId="672" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="673" fillId="0" borderId="673" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="674" fillId="0" borderId="674" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="675" fillId="0" borderId="675" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="676" fillId="0" borderId="676" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="677" fillId="0" borderId="677" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="678" fillId="0" borderId="678" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="679" fillId="0" borderId="679" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="680" fillId="0" borderId="680" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="681" fillId="0" borderId="681" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="682" fillId="0" borderId="682" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="683" fillId="0" borderId="683" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="684" fillId="0" borderId="684" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="685" fillId="0" borderId="685" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="686" fillId="0" borderId="686" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="687" fillId="0" borderId="687" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="688" fillId="0" borderId="688" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="689" fillId="0" borderId="689" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="690" fillId="0" borderId="690" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="691" fillId="0" borderId="691" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="692" fillId="0" borderId="692" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="693" fillId="0" borderId="693" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="694" fillId="0" borderId="694" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="695" fillId="0" borderId="695" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="696" fillId="0" borderId="696" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="697" fillId="0" borderId="697" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="698" fillId="0" borderId="698" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="699" fillId="0" borderId="699" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="700" fillId="0" borderId="700" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="701" fillId="0" borderId="701" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="702" fillId="0" borderId="702" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="703" fillId="0" borderId="703" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="704" fillId="0" borderId="704" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="705" fillId="0" borderId="705" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="706" fillId="0" borderId="706" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="707" fillId="0" borderId="707" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="708" fillId="0" borderId="708" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="709" fillId="0" borderId="709" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="710" fillId="0" borderId="710" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="711" fillId="0" borderId="711" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="712" fillId="0" borderId="712" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="713" fillId="0" borderId="713" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="714" fillId="0" borderId="714" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="715" fillId="0" borderId="715" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="716" fillId="0" borderId="716" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="717" fillId="0" borderId="717" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="718" fillId="0" borderId="718" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="719" fillId="0" borderId="719" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="720" fillId="0" borderId="720" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8224,36 +10924,36 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="451">
+      <c r="B3" s="631">
         <v>9.6262788172613547</v>
       </c>
-      <c r="C3" s="452">
+      <c r="C3" s="632">
         <v>9.4985233712130785</v>
       </c>
-      <c r="D3" s="453">
+      <c r="D3" s="633">
         <v>9.5310703563207682</v>
       </c>
-      <c r="E3" s="454">
+      <c r="E3" s="634">
         <v>9.6185530142109492</v>
       </c>
-      <c r="F3" s="455">
+      <c r="F3" s="635">
         <v>9.5677677699685333</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="456">
+      <c r="B4" s="636">
         <v>0.26629049823736922</v>
       </c>
-      <c r="C4" s="457">
+      <c r="C4" s="637">
         <v>0.50950401995643524</v>
       </c>
-      <c r="D4" s="458">
+      <c r="D4" s="638">
         <v>0.41699738504902423</v>
       </c>
-      <c r="E4" s="459">
+      <c r="E4" s="639">
         <v>0.37779434640592702</v>
       </c>
-      <c r="F4" s="460">
+      <c r="F4" s="640">
         <v>0.40737844003334822</v>
       </c>
     </row>
@@ -8261,36 +10961,36 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="461">
+      <c r="B5" s="641">
         <v>9.6995065786728727</v>
       </c>
-      <c r="C5" s="462">
+      <c r="C5" s="642">
         <v>9.6121464512722721</v>
       </c>
-      <c r="D5" s="463">
+      <c r="D5" s="643">
         <v>9.595921749324031</v>
       </c>
-      <c r="E5" s="464">
+      <c r="E5" s="644">
         <v>9.709897872639381</v>
       </c>
-      <c r="F5" s="465">
+      <c r="F5" s="645">
         <v>9.6622813323634009</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="466">
+      <c r="B6" s="646">
         <v>0.23880230199483959</v>
       </c>
-      <c r="C6" s="467">
+      <c r="C6" s="647">
         <v>0.45160002240660252</v>
       </c>
-      <c r="D6" s="468">
+      <c r="D6" s="648">
         <v>0.36758700082789431</v>
       </c>
-      <c r="E6" s="469">
+      <c r="E6" s="649">
         <v>0.33722675120036089</v>
       </c>
-      <c r="F6" s="470">
+      <c r="F6" s="650">
         <v>0.35116915193077392</v>
       </c>
     </row>
@@ -8298,36 +10998,36 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="471">
+      <c r="B7" s="651">
         <v>9.6444806606527678</v>
       </c>
-      <c r="C7" s="472">
+      <c r="C7" s="652">
         <v>9.5260273873515207</v>
       </c>
-      <c r="D7" s="473">
+      <c r="D7" s="653">
         <v>9.5564048631271312</v>
       </c>
-      <c r="E7" s="474">
+      <c r="E7" s="654">
         <v>9.6381783656526707</v>
       </c>
-      <c r="F7" s="475">
+      <c r="F7" s="655">
         <v>9.5911624582714943</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="476">
+      <c r="B8" s="656">
         <v>0.25858677687265907</v>
       </c>
-      <c r="C8" s="477">
+      <c r="C8" s="657">
         <v>0.49589567389843331</v>
       </c>
-      <c r="D8" s="478">
+      <c r="D8" s="658">
         <v>0.40160827568108193</v>
       </c>
-      <c r="E8" s="479">
+      <c r="E8" s="659">
         <v>0.37285527634968341</v>
       </c>
-      <c r="F8" s="480">
+      <c r="F8" s="660">
         <v>0.39496689732178619</v>
       </c>
     </row>
@@ -8340,36 +11040,36 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="481">
+      <c r="B11" s="661">
         <v>9.7158729720477091</v>
       </c>
-      <c r="C11" s="482">
+      <c r="C11" s="662">
         <v>9.6522917370928454</v>
       </c>
-      <c r="D11" s="483">
+      <c r="D11" s="663">
         <v>9.6504889986637696</v>
       </c>
-      <c r="E11" s="484">
+      <c r="E11" s="664">
         <v>9.7102592437321906</v>
       </c>
-      <c r="F11" s="485">
+      <c r="F11" s="665">
         <v>9.6817795138661076</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="486">
+      <c r="B12" s="666">
         <v>0.1835039086205251</v>
       </c>
-      <c r="C12" s="487">
+      <c r="C12" s="667">
         <v>0.36638046840985983</v>
       </c>
-      <c r="D12" s="488">
+      <c r="D12" s="668">
         <v>0.30744455013892441</v>
       </c>
-      <c r="E12" s="489">
+      <c r="E12" s="669">
         <v>0.3144581307202618</v>
       </c>
-      <c r="F12" s="490">
+      <c r="F12" s="670">
         <v>0.30321582241459177</v>
       </c>
     </row>
@@ -8377,36 +11077,36 @@
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="491">
+      <c r="B13" s="671">
         <v>9.7536332184173542</v>
       </c>
-      <c r="C13" s="492">
+      <c r="C13" s="672">
         <v>9.6980953895717956</v>
       </c>
-      <c r="D13" s="493">
+      <c r="D13" s="673">
         <v>9.6708576311076584</v>
       </c>
-      <c r="E13" s="494">
+      <c r="E13" s="674">
         <v>9.7611590072504466</v>
       </c>
-      <c r="F13" s="495">
+      <c r="F13" s="675">
         <v>9.7270729845677035</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="496">
+      <c r="B14" s="676">
         <v>0.18350999306875629</v>
       </c>
-      <c r="C14" s="497">
+      <c r="C14" s="677">
         <v>0.36827594017943499</v>
       </c>
-      <c r="D14" s="498">
+      <c r="D14" s="678">
         <v>0.29395556844565418</v>
       </c>
-      <c r="E14" s="499">
+      <c r="E14" s="679">
         <v>0.27927946408178511</v>
       </c>
-      <c r="F14" s="500">
+      <c r="F14" s="680">
         <v>0.28379594196863589</v>
       </c>
     </row>
@@ -8414,36 +11114,36 @@
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="501">
+      <c r="B15" s="681">
         <v>9.723498025870823</v>
       </c>
-      <c r="C15" s="502">
+      <c r="C15" s="682">
         <v>9.6612851288534678</v>
       </c>
-      <c r="D15" s="503">
+      <c r="D15" s="683">
         <v>9.6598321843571711</v>
       </c>
-      <c r="E15" s="504">
+      <c r="E15" s="684">
         <v>9.7199659287550624</v>
       </c>
-      <c r="F15" s="505">
+      <c r="F15" s="685">
         <v>9.6910642596827188</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="506">
+      <c r="B16" s="686">
         <v>0.18292438521802901</v>
       </c>
-      <c r="C16" s="507">
+      <c r="C16" s="687">
         <v>0.36787649978208831</v>
       </c>
-      <c r="D16" s="508">
+      <c r="D16" s="688">
         <v>0.30031803790445227</v>
       </c>
-      <c r="E16" s="509">
+      <c r="E16" s="689">
         <v>0.31184518996317839</v>
       </c>
-      <c r="F16" s="510">
+      <c r="F16" s="690">
         <v>0.30010201662005881</v>
       </c>
     </row>
@@ -8456,36 +11156,36 @@
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="511">
+      <c r="B19" s="691">
         <v>9.3761056774185612</v>
       </c>
-      <c r="C19" s="512">
+      <c r="C19" s="692">
         <v>9.0691393206063839</v>
       </c>
-      <c r="D19" s="513">
+      <c r="D19" s="693">
         <v>9.2002798917463267</v>
       </c>
-      <c r="E19" s="514">
+      <c r="E19" s="694">
         <v>9.3596483718988903</v>
       </c>
-      <c r="F19" s="515">
+      <c r="F19" s="695">
         <v>9.2491819905256865</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="516">
+      <c r="B20" s="696">
         <v>0.2998234963363996</v>
       </c>
-      <c r="C20" s="517">
+      <c r="C20" s="697">
         <v>0.59940468810912972</v>
       </c>
-      <c r="D20" s="518">
+      <c r="D20" s="698">
         <v>0.49479843076328178</v>
       </c>
-      <c r="E20" s="519">
+      <c r="E20" s="699">
         <v>0.41923087500805201</v>
       </c>
-      <c r="F20" s="520">
+      <c r="F20" s="700">
         <v>0.4847390578693534</v>
       </c>
     </row>
@@ -8493,36 +11193,36 @@
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="521">
+      <c r="B21" s="701">
         <v>9.4317848373450399</v>
       </c>
-      <c r="C21" s="522">
+      <c r="C21" s="702">
         <v>9.1420742687971703</v>
       </c>
-      <c r="D21" s="523">
+      <c r="D21" s="703">
         <v>9.2671501587682208</v>
       </c>
-      <c r="E21" s="524">
+      <c r="E21" s="704">
         <v>9.4434566409625162</v>
       </c>
-      <c r="F21" s="525">
+      <c r="F21" s="705">
         <v>9.3384449059643124</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="526">
+      <c r="B22" s="706">
         <v>0.29399819105127639</v>
       </c>
-      <c r="C22" s="527">
+      <c r="C22" s="707">
         <v>0.56271951795506725</v>
       </c>
-      <c r="D22" s="528">
+      <c r="D22" s="708">
         <v>0.46517644172356748</v>
       </c>
-      <c r="E22" s="529">
+      <c r="E22" s="709">
         <v>0.4636980552779878</v>
       </c>
-      <c r="F22" s="530">
+      <c r="F22" s="710">
         <v>0.45972707198778362</v>
       </c>
     </row>
@@ -8530,36 +11230,36 @@
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="531">
+      <c r="B23" s="711">
         <v>9.3816418056866642</v>
       </c>
-      <c r="C23" s="532">
+      <c r="C23" s="712">
         <v>9.0739350954442131</v>
       </c>
-      <c r="D23" s="533">
+      <c r="D23" s="713">
         <v>9.2122536474898382</v>
       </c>
-      <c r="E23" s="534">
+      <c r="E23" s="714">
         <v>9.3655745496664355</v>
       </c>
-      <c r="F23" s="535">
+      <c r="F23" s="715">
         <v>9.2582570849463224</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="536">
+      <c r="B24" s="716">
         <v>0.29688259815856449</v>
       </c>
-      <c r="C24" s="537">
+      <c r="C24" s="717">
         <v>0.59161566582926539</v>
       </c>
-      <c r="D24" s="538">
+      <c r="D24" s="718">
         <v>0.49381280403838768</v>
       </c>
-      <c r="E24" s="539">
+      <c r="E24" s="719">
         <v>0.42621921446863292</v>
       </c>
-      <c r="F24" s="540">
+      <c r="F24" s="720">
         <v>0.48129547266071732</v>
       </c>
     </row>

--- a/output/table2.xlsx
+++ b/output/table2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="136" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="204" uniqueCount="11">
   <si>
     <t>Panel 1: All Gymnasts</t>
   </si>
@@ -55,7 +55,1447 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="#0.00"/>
   </numFmts>
-  <fonts count="721">
+  <fonts count="1081">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2949,7 +4389,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="721">
+  <borders count="1081">
     <border>
       <left/>
       <right/>
@@ -7997,11 +9437,2531 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="721">
+  <cellXfs count="1081">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -10880,6 +14840,1446 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="720" fillId="0" borderId="720" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="721" fillId="0" borderId="721" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="722" fillId="0" borderId="722" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="723" fillId="0" borderId="723" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="724" fillId="0" borderId="724" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="725" fillId="0" borderId="725" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="726" fillId="0" borderId="726" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="727" fillId="0" borderId="727" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="728" fillId="0" borderId="728" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="729" fillId="0" borderId="729" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="730" fillId="0" borderId="730" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="731" fillId="0" borderId="731" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="732" fillId="0" borderId="732" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="733" fillId="0" borderId="733" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="734" fillId="0" borderId="734" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="735" fillId="0" borderId="735" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="736" fillId="0" borderId="736" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="737" fillId="0" borderId="737" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="738" fillId="0" borderId="738" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="739" fillId="0" borderId="739" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="740" fillId="0" borderId="740" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="741" fillId="0" borderId="741" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="742" fillId="0" borderId="742" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="743" fillId="0" borderId="743" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="744" fillId="0" borderId="744" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="745" fillId="0" borderId="745" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="746" fillId="0" borderId="746" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="747" fillId="0" borderId="747" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="748" fillId="0" borderId="748" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="749" fillId="0" borderId="749" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="750" fillId="0" borderId="750" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="751" fillId="0" borderId="751" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="752" fillId="0" borderId="752" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="753" fillId="0" borderId="753" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="754" fillId="0" borderId="754" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="755" fillId="0" borderId="755" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="756" fillId="0" borderId="756" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="757" fillId="0" borderId="757" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="758" fillId="0" borderId="758" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="759" fillId="0" borderId="759" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="760" fillId="0" borderId="760" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="761" fillId="0" borderId="761" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="762" fillId="0" borderId="762" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="763" fillId="0" borderId="763" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="764" fillId="0" borderId="764" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="765" fillId="0" borderId="765" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="766" fillId="0" borderId="766" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="767" fillId="0" borderId="767" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="768" fillId="0" borderId="768" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="769" fillId="0" borderId="769" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="770" fillId="0" borderId="770" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="771" fillId="0" borderId="771" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="772" fillId="0" borderId="772" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="773" fillId="0" borderId="773" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="774" fillId="0" borderId="774" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="775" fillId="0" borderId="775" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="776" fillId="0" borderId="776" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="777" fillId="0" borderId="777" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="778" fillId="0" borderId="778" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="779" fillId="0" borderId="779" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="780" fillId="0" borderId="780" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="781" fillId="0" borderId="781" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="782" fillId="0" borderId="782" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="783" fillId="0" borderId="783" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="784" fillId="0" borderId="784" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="785" fillId="0" borderId="785" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="786" fillId="0" borderId="786" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="787" fillId="0" borderId="787" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="788" fillId="0" borderId="788" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="789" fillId="0" borderId="789" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="790" fillId="0" borderId="790" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="791" fillId="0" borderId="791" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="792" fillId="0" borderId="792" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="793" fillId="0" borderId="793" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="794" fillId="0" borderId="794" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="795" fillId="0" borderId="795" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="796" fillId="0" borderId="796" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="797" fillId="0" borderId="797" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="798" fillId="0" borderId="798" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="799" fillId="0" borderId="799" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="800" fillId="0" borderId="800" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="801" fillId="0" borderId="801" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="802" fillId="0" borderId="802" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="803" fillId="0" borderId="803" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="804" fillId="0" borderId="804" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="805" fillId="0" borderId="805" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="806" fillId="0" borderId="806" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="807" fillId="0" borderId="807" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="808" fillId="0" borderId="808" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="809" fillId="0" borderId="809" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="810" fillId="0" borderId="810" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="811" fillId="0" borderId="811" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="812" fillId="0" borderId="812" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="813" fillId="0" borderId="813" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="814" fillId="0" borderId="814" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="815" fillId="0" borderId="815" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="816" fillId="0" borderId="816" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="817" fillId="0" borderId="817" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="818" fillId="0" borderId="818" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="819" fillId="0" borderId="819" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="820" fillId="0" borderId="820" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="821" fillId="0" borderId="821" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="822" fillId="0" borderId="822" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="823" fillId="0" borderId="823" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="824" fillId="0" borderId="824" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="825" fillId="0" borderId="825" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="826" fillId="0" borderId="826" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="827" fillId="0" borderId="827" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="828" fillId="0" borderId="828" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="829" fillId="0" borderId="829" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="830" fillId="0" borderId="830" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="831" fillId="0" borderId="831" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="832" fillId="0" borderId="832" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="833" fillId="0" borderId="833" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="834" fillId="0" borderId="834" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="835" fillId="0" borderId="835" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="836" fillId="0" borderId="836" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="837" fillId="0" borderId="837" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="838" fillId="0" borderId="838" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="839" fillId="0" borderId="839" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="840" fillId="0" borderId="840" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="841" fillId="0" borderId="841" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="842" fillId="0" borderId="842" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="843" fillId="0" borderId="843" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="844" fillId="0" borderId="844" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="845" fillId="0" borderId="845" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="846" fillId="0" borderId="846" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="847" fillId="0" borderId="847" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="848" fillId="0" borderId="848" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="849" fillId="0" borderId="849" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="850" fillId="0" borderId="850" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="851" fillId="0" borderId="851" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="852" fillId="0" borderId="852" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="853" fillId="0" borderId="853" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="854" fillId="0" borderId="854" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="855" fillId="0" borderId="855" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="856" fillId="0" borderId="856" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="857" fillId="0" borderId="857" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="858" fillId="0" borderId="858" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="859" fillId="0" borderId="859" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="860" fillId="0" borderId="860" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="861" fillId="0" borderId="861" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="862" fillId="0" borderId="862" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="863" fillId="0" borderId="863" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="864" fillId="0" borderId="864" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="865" fillId="0" borderId="865" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="866" fillId="0" borderId="866" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="867" fillId="0" borderId="867" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="868" fillId="0" borderId="868" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="869" fillId="0" borderId="869" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="870" fillId="0" borderId="870" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="871" fillId="0" borderId="871" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="872" fillId="0" borderId="872" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="873" fillId="0" borderId="873" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="874" fillId="0" borderId="874" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="875" fillId="0" borderId="875" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="876" fillId="0" borderId="876" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="877" fillId="0" borderId="877" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="878" fillId="0" borderId="878" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="879" fillId="0" borderId="879" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="880" fillId="0" borderId="880" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="881" fillId="0" borderId="881" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="882" fillId="0" borderId="882" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="883" fillId="0" borderId="883" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="884" fillId="0" borderId="884" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="885" fillId="0" borderId="885" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="886" fillId="0" borderId="886" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="887" fillId="0" borderId="887" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="888" fillId="0" borderId="888" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="889" fillId="0" borderId="889" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="890" fillId="0" borderId="890" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="891" fillId="0" borderId="891" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="892" fillId="0" borderId="892" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="893" fillId="0" borderId="893" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="894" fillId="0" borderId="894" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="895" fillId="0" borderId="895" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="896" fillId="0" borderId="896" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="897" fillId="0" borderId="897" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="898" fillId="0" borderId="898" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="899" fillId="0" borderId="899" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="900" fillId="0" borderId="900" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="901" fillId="0" borderId="901" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="902" fillId="0" borderId="902" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="903" fillId="0" borderId="903" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="904" fillId="0" borderId="904" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="905" fillId="0" borderId="905" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="906" fillId="0" borderId="906" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="907" fillId="0" borderId="907" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="908" fillId="0" borderId="908" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="909" fillId="0" borderId="909" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="910" fillId="0" borderId="910" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="911" fillId="0" borderId="911" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="912" fillId="0" borderId="912" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="913" fillId="0" borderId="913" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="914" fillId="0" borderId="914" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="915" fillId="0" borderId="915" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="916" fillId="0" borderId="916" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="917" fillId="0" borderId="917" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="918" fillId="0" borderId="918" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="919" fillId="0" borderId="919" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="920" fillId="0" borderId="920" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="921" fillId="0" borderId="921" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="922" fillId="0" borderId="922" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="923" fillId="0" borderId="923" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="924" fillId="0" borderId="924" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="925" fillId="0" borderId="925" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="926" fillId="0" borderId="926" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="927" fillId="0" borderId="927" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="928" fillId="0" borderId="928" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="929" fillId="0" borderId="929" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="930" fillId="0" borderId="930" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="931" fillId="0" borderId="931" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="932" fillId="0" borderId="932" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="933" fillId="0" borderId="933" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="934" fillId="0" borderId="934" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="935" fillId="0" borderId="935" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="936" fillId="0" borderId="936" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="937" fillId="0" borderId="937" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="938" fillId="0" borderId="938" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="939" fillId="0" borderId="939" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="940" fillId="0" borderId="940" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="941" fillId="0" borderId="941" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="942" fillId="0" borderId="942" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="943" fillId="0" borderId="943" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="944" fillId="0" borderId="944" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="945" fillId="0" borderId="945" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="946" fillId="0" borderId="946" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="947" fillId="0" borderId="947" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="948" fillId="0" borderId="948" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="949" fillId="0" borderId="949" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="950" fillId="0" borderId="950" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="951" fillId="0" borderId="951" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="952" fillId="0" borderId="952" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="953" fillId="0" borderId="953" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="954" fillId="0" borderId="954" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="955" fillId="0" borderId="955" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="956" fillId="0" borderId="956" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="957" fillId="0" borderId="957" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="958" fillId="0" borderId="958" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="959" fillId="0" borderId="959" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="960" fillId="0" borderId="960" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="961" fillId="0" borderId="961" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="962" fillId="0" borderId="962" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="963" fillId="0" borderId="963" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="964" fillId="0" borderId="964" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="965" fillId="0" borderId="965" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="966" fillId="0" borderId="966" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="967" fillId="0" borderId="967" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="968" fillId="0" borderId="968" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="969" fillId="0" borderId="969" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="970" fillId="0" borderId="970" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="971" fillId="0" borderId="971" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="972" fillId="0" borderId="972" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="973" fillId="0" borderId="973" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="974" fillId="0" borderId="974" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="975" fillId="0" borderId="975" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="976" fillId="0" borderId="976" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="977" fillId="0" borderId="977" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="978" fillId="0" borderId="978" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="979" fillId="0" borderId="979" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="980" fillId="0" borderId="980" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="981" fillId="0" borderId="981" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="982" fillId="0" borderId="982" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="983" fillId="0" borderId="983" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="984" fillId="0" borderId="984" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="985" fillId="0" borderId="985" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="986" fillId="0" borderId="986" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="987" fillId="0" borderId="987" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="988" fillId="0" borderId="988" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="989" fillId="0" borderId="989" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="990" fillId="0" borderId="990" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="991" fillId="0" borderId="991" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="992" fillId="0" borderId="992" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="993" fillId="0" borderId="993" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="994" fillId="0" borderId="994" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="995" fillId="0" borderId="995" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="996" fillId="0" borderId="996" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="997" fillId="0" borderId="997" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="998" fillId="0" borderId="998" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="999" fillId="0" borderId="999" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1000" fillId="0" borderId="1000" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1001" fillId="0" borderId="1001" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1002" fillId="0" borderId="1002" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1003" fillId="0" borderId="1003" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1004" fillId="0" borderId="1004" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1005" fillId="0" borderId="1005" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1006" fillId="0" borderId="1006" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1007" fillId="0" borderId="1007" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1008" fillId="0" borderId="1008" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1009" fillId="0" borderId="1009" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1010" fillId="0" borderId="1010" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1011" fillId="0" borderId="1011" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1012" fillId="0" borderId="1012" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1013" fillId="0" borderId="1013" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1014" fillId="0" borderId="1014" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1015" fillId="0" borderId="1015" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1016" fillId="0" borderId="1016" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1017" fillId="0" borderId="1017" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1018" fillId="0" borderId="1018" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1019" fillId="0" borderId="1019" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1020" fillId="0" borderId="1020" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1021" fillId="0" borderId="1021" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1022" fillId="0" borderId="1022" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1023" fillId="0" borderId="1023" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1024" fillId="0" borderId="1024" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1025" fillId="0" borderId="1025" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1026" fillId="0" borderId="1026" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1027" fillId="0" borderId="1027" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1028" fillId="0" borderId="1028" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1029" fillId="0" borderId="1029" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1030" fillId="0" borderId="1030" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1031" fillId="0" borderId="1031" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1032" fillId="0" borderId="1032" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1033" fillId="0" borderId="1033" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1034" fillId="0" borderId="1034" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1035" fillId="0" borderId="1035" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1036" fillId="0" borderId="1036" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1037" fillId="0" borderId="1037" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1038" fillId="0" borderId="1038" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1039" fillId="0" borderId="1039" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1040" fillId="0" borderId="1040" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1041" fillId="0" borderId="1041" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1042" fillId="0" borderId="1042" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1043" fillId="0" borderId="1043" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1044" fillId="0" borderId="1044" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1045" fillId="0" borderId="1045" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1046" fillId="0" borderId="1046" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1047" fillId="0" borderId="1047" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1048" fillId="0" borderId="1048" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1049" fillId="0" borderId="1049" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1050" fillId="0" borderId="1050" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1051" fillId="0" borderId="1051" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1052" fillId="0" borderId="1052" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1053" fillId="0" borderId="1053" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1054" fillId="0" borderId="1054" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1055" fillId="0" borderId="1055" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1056" fillId="0" borderId="1056" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1057" fillId="0" borderId="1057" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1058" fillId="0" borderId="1058" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1059" fillId="0" borderId="1059" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1060" fillId="0" borderId="1060" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1061" fillId="0" borderId="1061" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1062" fillId="0" borderId="1062" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1063" fillId="0" borderId="1063" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1064" fillId="0" borderId="1064" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1065" fillId="0" borderId="1065" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1066" fillId="0" borderId="1066" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1067" fillId="0" borderId="1067" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1068" fillId="0" borderId="1068" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1069" fillId="0" borderId="1069" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1070" fillId="0" borderId="1070" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1071" fillId="0" borderId="1071" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1072" fillId="0" borderId="1072" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1073" fillId="0" borderId="1073" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1074" fillId="0" borderId="1074" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1075" fillId="0" borderId="1075" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1076" fillId="0" borderId="1076" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1077" fillId="0" borderId="1077" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1078" fillId="0" borderId="1078" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1079" fillId="0" borderId="1079" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1080" fillId="0" borderId="1080" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10924,111 +16324,111 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="631">
-        <v>9.6262788172613547</v>
+      <c r="B3" s="991">
+        <v>9.6380706707266732</v>
       </c>
-      <c r="C3" s="632">
-        <v>9.4985233712130785</v>
+      <c r="C3" s="992">
+        <v>9.5186969843242917</v>
       </c>
-      <c r="D3" s="633">
-        <v>9.5310703563207682</v>
+      <c r="D3" s="993">
+        <v>9.5475155688865794</v>
       </c>
-      <c r="E3" s="634">
-        <v>9.6185530142109492</v>
+      <c r="E3" s="994">
+        <v>9.6337012082721465</v>
       </c>
-      <c r="F3" s="635">
-        <v>9.5677677699685333</v>
+      <c r="F3" s="995">
+        <v>9.5837188931499799</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="636">
-        <v>0.26629049823736922</v>
+      <c r="B4" s="996">
+        <v>0.26042761636716771</v>
       </c>
-      <c r="C4" s="637">
-        <v>0.50950401995643524</v>
+      <c r="C4" s="997">
+        <v>0.49666635781419571</v>
       </c>
-      <c r="D4" s="638">
-        <v>0.41699738504902423</v>
+      <c r="D4" s="998">
+        <v>0.40727922329616129</v>
       </c>
-      <c r="E4" s="639">
-        <v>0.37779434640592702</v>
+      <c r="E4" s="999">
+        <v>0.36515612307660439</v>
       </c>
-      <c r="F4" s="640">
-        <v>0.40737844003334822</v>
+      <c r="F4" s="1000">
+        <v>0.39654580355128849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="641">
-        <v>9.6995065786728727</v>
+      <c r="B5" s="1001">
+        <v>9.7052997831443992</v>
       </c>
-      <c r="C5" s="642">
-        <v>9.6121464512722721</v>
+      <c r="C5" s="1002">
+        <v>9.6226980044380692</v>
       </c>
-      <c r="D5" s="643">
-        <v>9.595921749324031</v>
+      <c r="D5" s="1003">
+        <v>9.6066909054953289</v>
       </c>
-      <c r="E5" s="644">
-        <v>9.709897872639381</v>
+      <c r="E5" s="1004">
+        <v>9.7206118665768582</v>
       </c>
-      <c r="F5" s="645">
-        <v>9.6622813323634009</v>
+      <c r="F5" s="1005">
+        <v>9.6715036659064548</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="646">
-        <v>0.23880230199483959</v>
+      <c r="B6" s="1006">
+        <v>0.2350353759531299</v>
       </c>
-      <c r="C6" s="647">
-        <v>0.45160002240660252</v>
+      <c r="C6" s="1007">
+        <v>0.43499523134502133</v>
       </c>
-      <c r="D6" s="648">
-        <v>0.36758700082789431</v>
+      <c r="D6" s="1008">
+        <v>0.35930166761496463</v>
       </c>
-      <c r="E6" s="649">
-        <v>0.33722675120036089</v>
+      <c r="E6" s="1009">
+        <v>0.32335825147039787</v>
       </c>
-      <c r="F6" s="650">
-        <v>0.35116915193077392</v>
+      <c r="F6" s="1010">
+        <v>0.34012713364241731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="651">
-        <v>9.6444806606527678</v>
+      <c r="B7" s="1011">
+        <v>9.6552037587342561</v>
       </c>
-      <c r="C7" s="652">
-        <v>9.5260273873515207</v>
+      <c r="C7" s="1012">
+        <v>9.5440462154998045</v>
       </c>
-      <c r="D7" s="653">
-        <v>9.5564048631271312</v>
+      <c r="D7" s="1013">
+        <v>9.5712777431125389</v>
       </c>
-      <c r="E7" s="654">
-        <v>9.6381783656526707</v>
+      <c r="E7" s="1014">
+        <v>9.6523423375496407</v>
       </c>
-      <c r="F7" s="655">
-        <v>9.5911624582714943</v>
+      <c r="F7" s="1015">
+        <v>9.6056123028611395</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="656">
-        <v>0.25858677687265907</v>
+      <c r="B8" s="1016">
+        <v>0.25272943333373921</v>
       </c>
-      <c r="C8" s="657">
-        <v>0.49589567389843331</v>
+      <c r="C8" s="1017">
+        <v>0.4830004318568743</v>
       </c>
-      <c r="D8" s="658">
-        <v>0.40160827568108193</v>
+      <c r="D8" s="1018">
+        <v>0.39197607959816172</v>
       </c>
-      <c r="E8" s="659">
-        <v>0.37285527634968341</v>
+      <c r="E8" s="1019">
+        <v>0.36164436726926968</v>
       </c>
-      <c r="F8" s="660">
-        <v>0.39496689732178619</v>
+      <c r="F8" s="1020">
+        <v>0.38457454868251079</v>
       </c>
     </row>
     <row r="10">
@@ -11040,111 +16440,111 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="661">
-        <v>9.7158729720477091</v>
+      <c r="B11" s="1021">
+        <v>9.7203642662371568</v>
       </c>
-      <c r="C11" s="662">
-        <v>9.6522917370928454</v>
+      <c r="C11" s="1022">
+        <v>9.6592710542291496</v>
       </c>
-      <c r="D11" s="663">
-        <v>9.6504889986637696</v>
+      <c r="D11" s="1023">
+        <v>9.6571675937876016</v>
       </c>
-      <c r="E11" s="664">
-        <v>9.7102592437321906</v>
+      <c r="E11" s="1024">
+        <v>9.7176574274531937</v>
       </c>
-      <c r="F11" s="665">
-        <v>9.6817795138661076</v>
+      <c r="F11" s="1025">
+        <v>9.6881915937309131</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="666">
-        <v>0.1835039086205251</v>
+      <c r="B12" s="1026">
+        <v>0.1814209911918174</v>
       </c>
-      <c r="C12" s="667">
-        <v>0.36638046840985983</v>
+      <c r="C12" s="1027">
+        <v>0.36141956452213159</v>
       </c>
-      <c r="D12" s="668">
-        <v>0.30744455013892441</v>
+      <c r="D12" s="1028">
+        <v>0.30401734979093559</v>
       </c>
-      <c r="E12" s="669">
-        <v>0.3144581307202618</v>
+      <c r="E12" s="1029">
+        <v>0.30229345024602539</v>
       </c>
-      <c r="F12" s="670">
-        <v>0.30321582241459177</v>
+      <c r="F12" s="1030">
+        <v>0.29729419245108019</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="671">
-        <v>9.7536332184173542</v>
+      <c r="B13" s="1031">
+        <v>9.7557381386707203</v>
       </c>
-      <c r="C13" s="672">
-        <v>9.6980953895717956</v>
+      <c r="C13" s="1032">
+        <v>9.702831666105654</v>
       </c>
-      <c r="D13" s="673">
-        <v>9.6708576311076584</v>
+      <c r="D13" s="1033">
+        <v>9.6771989887773397</v>
       </c>
-      <c r="E13" s="674">
-        <v>9.7611590072504466</v>
+      <c r="E13" s="1034">
+        <v>9.7678320482146344</v>
       </c>
-      <c r="F13" s="675">
-        <v>9.7270729845677035</v>
+      <c r="F13" s="1035">
+        <v>9.7319010649766504</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="676">
-        <v>0.18350999306875629</v>
+      <c r="B14" s="1036">
+        <v>0.18282626616245831</v>
       </c>
-      <c r="C14" s="677">
-        <v>0.36827594017943499</v>
+      <c r="C14" s="1037">
+        <v>0.35462836436246292</v>
       </c>
-      <c r="D14" s="678">
-        <v>0.29395556844565418</v>
+      <c r="D14" s="1038">
+        <v>0.28763837775054019</v>
       </c>
-      <c r="E14" s="679">
-        <v>0.27927946408178511</v>
+      <c r="E14" s="1039">
+        <v>0.26824340348921499</v>
       </c>
-      <c r="F14" s="680">
-        <v>0.28379594196863589</v>
+      <c r="F14" s="1040">
+        <v>0.27532817340682791</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="681">
-        <v>9.723498025870823</v>
+      <c r="B15" s="1041">
+        <v>9.7278352062136104</v>
       </c>
-      <c r="C15" s="682">
-        <v>9.6612851288534678</v>
+      <c r="C15" s="1042">
+        <v>9.6674673622097114</v>
       </c>
-      <c r="D15" s="683">
-        <v>9.6598321843571711</v>
+      <c r="D15" s="1043">
+        <v>9.666287063501839</v>
       </c>
-      <c r="E15" s="684">
-        <v>9.7199659287550624</v>
+      <c r="E15" s="1044">
+        <v>9.7273291211912092</v>
       </c>
-      <c r="F15" s="685">
-        <v>9.6910642596827188</v>
+      <c r="F15" s="1045">
+        <v>9.6971516073198707</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="686">
-        <v>0.18292438521802901</v>
+      <c r="B16" s="1046">
+        <v>0.1806886840386743</v>
       </c>
-      <c r="C16" s="687">
-        <v>0.36787649978208831</v>
+      <c r="C16" s="1047">
+        <v>0.36232392485153642</v>
       </c>
-      <c r="D16" s="688">
-        <v>0.30031803790445227</v>
+      <c r="D16" s="1048">
+        <v>0.2966987293095526</v>
       </c>
-      <c r="E16" s="689">
-        <v>0.31184518996317839</v>
+      <c r="E16" s="1049">
+        <v>0.30253054877687457</v>
       </c>
-      <c r="F16" s="690">
-        <v>0.30010201662005881</v>
+      <c r="F16" s="1050">
+        <v>0.29471261062325249</v>
       </c>
     </row>
     <row r="18">
@@ -11156,111 +16556,111 @@
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="691">
-        <v>9.3761056774185612</v>
+      <c r="B19" s="1051">
+        <v>9.3884366916893587</v>
       </c>
-      <c r="C19" s="692">
-        <v>9.0691393206063839</v>
+      <c r="C19" s="1052">
+        <v>9.0935576650749237</v>
       </c>
-      <c r="D19" s="693">
-        <v>9.2002798917463267</v>
+      <c r="D19" s="1053">
+        <v>9.2171754268934158</v>
       </c>
-      <c r="E19" s="694">
-        <v>9.3596483718988903</v>
+      <c r="E19" s="1054">
+        <v>9.376201476086278</v>
       </c>
-      <c r="F19" s="695">
-        <v>9.2491819905256865</v>
+      <c r="F19" s="1055">
+        <v>9.2667296621186281</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="696">
-        <v>0.2998234963363996</v>
+      <c r="B20" s="1056">
+        <v>0.30143748790118918</v>
       </c>
-      <c r="C20" s="697">
-        <v>0.59940468810912972</v>
+      <c r="C20" s="1057">
+        <v>0.59764772734486604</v>
       </c>
-      <c r="D20" s="698">
-        <v>0.49479843076328178</v>
+      <c r="D20" s="1058">
+        <v>0.49175963446265458</v>
       </c>
-      <c r="E20" s="699">
-        <v>0.41923087500805201</v>
+      <c r="E20" s="1059">
+        <v>0.4172754318155088</v>
       </c>
-      <c r="F20" s="700">
-        <v>0.4847390578693534</v>
+      <c r="F20" s="1060">
+        <v>0.48228957882927209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="701">
-        <v>9.4317848373450399</v>
+      <c r="B21" s="1061">
+        <v>9.442718709690098</v>
       </c>
-      <c r="C21" s="702">
-        <v>9.1420742687971703</v>
+      <c r="C21" s="1062">
+        <v>9.1630114510094476</v>
       </c>
-      <c r="D21" s="703">
-        <v>9.2671501587682208</v>
+      <c r="D21" s="1063">
+        <v>9.2838437860263987</v>
       </c>
-      <c r="E21" s="704">
-        <v>9.4434566409625162</v>
+      <c r="E21" s="1064">
+        <v>9.4598318466393785</v>
       </c>
-      <c r="F21" s="705">
-        <v>9.3384449059643124</v>
+      <c r="F21" s="1065">
+        <v>9.3538010207974178</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="706">
-        <v>0.29399819105127639</v>
+      <c r="B22" s="1066">
+        <v>0.29444034937805219</v>
       </c>
-      <c r="C22" s="707">
-        <v>0.56271951795506725</v>
+      <c r="C22" s="1067">
+        <v>0.55272470188025125</v>
       </c>
-      <c r="D22" s="708">
-        <v>0.46517644172356748</v>
+      <c r="D22" s="1068">
+        <v>0.46329963064702079</v>
       </c>
-      <c r="E22" s="709">
-        <v>0.4636980552779878</v>
+      <c r="E22" s="1069">
+        <v>0.45225439848912269</v>
       </c>
-      <c r="F22" s="710">
-        <v>0.45972707198778362</v>
+      <c r="F22" s="1070">
+        <v>0.45321172274493032</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="711">
-        <v>9.3816418056866642</v>
+      <c r="B23" s="1071">
+        <v>9.393855995943861</v>
       </c>
-      <c r="C23" s="712">
-        <v>9.0739350954442131</v>
+      <c r="C23" s="1072">
+        <v>9.0979359440239769</v>
       </c>
-      <c r="D23" s="713">
-        <v>9.2122536474898382</v>
+      <c r="D23" s="1073">
+        <v>9.2292265172116554</v>
       </c>
-      <c r="E23" s="714">
-        <v>9.3655745496664355</v>
+      <c r="E23" s="1074">
+        <v>9.3819593255259193</v>
       </c>
-      <c r="F23" s="715">
-        <v>9.2582570849463224</v>
+      <c r="F23" s="1075">
+        <v>9.2756425555333326</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="716">
-        <v>0.29688259815856449</v>
+      <c r="B24" s="1076">
+        <v>0.29823661892134129</v>
       </c>
-      <c r="C24" s="717">
-        <v>0.59161566582926539</v>
+      <c r="C24" s="1077">
+        <v>0.58988382655647986</v>
       </c>
-      <c r="D24" s="718">
-        <v>0.49381280403838768</v>
+      <c r="D24" s="1078">
+        <v>0.49029870183641933</v>
       </c>
-      <c r="E24" s="719">
-        <v>0.42621921446863292</v>
+      <c r="E24" s="1079">
+        <v>0.42306902994509399</v>
       </c>
-      <c r="F24" s="720">
-        <v>0.48129547266071732</v>
+      <c r="F24" s="1080">
+        <v>0.47838655730232382</v>
       </c>
     </row>
   </sheetData>

--- a/output/table2.xlsx
+++ b/output/table2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="204" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="272" uniqueCount="11">
   <si>
     <t>Panel 1: All Gymnasts</t>
   </si>
@@ -55,7 +55,1447 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="#0.00"/>
   </numFmts>
-  <fonts count="1081">
+  <fonts count="1441">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -4389,7 +5829,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1081">
+  <borders count="1441">
     <border>
       <left/>
       <right/>
@@ -11957,11 +13397,2531 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1081">
+  <cellXfs count="1441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -16280,6 +20240,1446 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="1080" fillId="0" borderId="1080" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1081" fillId="0" borderId="1081" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1082" fillId="0" borderId="1082" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1083" fillId="0" borderId="1083" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1084" fillId="0" borderId="1084" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1085" fillId="0" borderId="1085" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1086" fillId="0" borderId="1086" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1087" fillId="0" borderId="1087" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1088" fillId="0" borderId="1088" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1089" fillId="0" borderId="1089" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1090" fillId="0" borderId="1090" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1091" fillId="0" borderId="1091" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1092" fillId="0" borderId="1092" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1093" fillId="0" borderId="1093" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1094" fillId="0" borderId="1094" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1095" fillId="0" borderId="1095" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1096" fillId="0" borderId="1096" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1097" fillId="0" borderId="1097" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1098" fillId="0" borderId="1098" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1099" fillId="0" borderId="1099" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1100" fillId="0" borderId="1100" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1101" fillId="0" borderId="1101" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1102" fillId="0" borderId="1102" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1103" fillId="0" borderId="1103" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1104" fillId="0" borderId="1104" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1105" fillId="0" borderId="1105" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1106" fillId="0" borderId="1106" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1107" fillId="0" borderId="1107" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1108" fillId="0" borderId="1108" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1109" fillId="0" borderId="1109" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1110" fillId="0" borderId="1110" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1111" fillId="0" borderId="1111" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1112" fillId="0" borderId="1112" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1113" fillId="0" borderId="1113" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1114" fillId="0" borderId="1114" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1115" fillId="0" borderId="1115" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1116" fillId="0" borderId="1116" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1117" fillId="0" borderId="1117" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1118" fillId="0" borderId="1118" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1119" fillId="0" borderId="1119" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1120" fillId="0" borderId="1120" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1121" fillId="0" borderId="1121" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1122" fillId="0" borderId="1122" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1123" fillId="0" borderId="1123" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1124" fillId="0" borderId="1124" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1125" fillId="0" borderId="1125" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1126" fillId="0" borderId="1126" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1127" fillId="0" borderId="1127" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1128" fillId="0" borderId="1128" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1129" fillId="0" borderId="1129" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1130" fillId="0" borderId="1130" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1131" fillId="0" borderId="1131" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1132" fillId="0" borderId="1132" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1133" fillId="0" borderId="1133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1134" fillId="0" borderId="1134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1135" fillId="0" borderId="1135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1136" fillId="0" borderId="1136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1137" fillId="0" borderId="1137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1138" fillId="0" borderId="1138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1139" fillId="0" borderId="1139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1140" fillId="0" borderId="1140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1141" fillId="0" borderId="1141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1142" fillId="0" borderId="1142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1143" fillId="0" borderId="1143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1144" fillId="0" borderId="1144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1145" fillId="0" borderId="1145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1146" fillId="0" borderId="1146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1147" fillId="0" borderId="1147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1148" fillId="0" borderId="1148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1149" fillId="0" borderId="1149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1150" fillId="0" borderId="1150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1151" fillId="0" borderId="1151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1152" fillId="0" borderId="1152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1153" fillId="0" borderId="1153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1154" fillId="0" borderId="1154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1155" fillId="0" borderId="1155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1156" fillId="0" borderId="1156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1157" fillId="0" borderId="1157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1158" fillId="0" borderId="1158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1159" fillId="0" borderId="1159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1160" fillId="0" borderId="1160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1161" fillId="0" borderId="1161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1162" fillId="0" borderId="1162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1163" fillId="0" borderId="1163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1164" fillId="0" borderId="1164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1165" fillId="0" borderId="1165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1166" fillId="0" borderId="1166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1167" fillId="0" borderId="1167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1168" fillId="0" borderId="1168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1169" fillId="0" borderId="1169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1170" fillId="0" borderId="1170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1171" fillId="0" borderId="1171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1172" fillId="0" borderId="1172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1173" fillId="0" borderId="1173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1174" fillId="0" borderId="1174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1175" fillId="0" borderId="1175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1176" fillId="0" borderId="1176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1177" fillId="0" borderId="1177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1178" fillId="0" borderId="1178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1179" fillId="0" borderId="1179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1180" fillId="0" borderId="1180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1181" fillId="0" borderId="1181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1182" fillId="0" borderId="1182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1183" fillId="0" borderId="1183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1184" fillId="0" borderId="1184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1185" fillId="0" borderId="1185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1186" fillId="0" borderId="1186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1187" fillId="0" borderId="1187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1188" fillId="0" borderId="1188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1189" fillId="0" borderId="1189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1190" fillId="0" borderId="1190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1191" fillId="0" borderId="1191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1192" fillId="0" borderId="1192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1193" fillId="0" borderId="1193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1194" fillId="0" borderId="1194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1195" fillId="0" borderId="1195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1196" fillId="0" borderId="1196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1197" fillId="0" borderId="1197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1198" fillId="0" borderId="1198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1199" fillId="0" borderId="1199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1200" fillId="0" borderId="1200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1201" fillId="0" borderId="1201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1202" fillId="0" borderId="1202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1203" fillId="0" borderId="1203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1204" fillId="0" borderId="1204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1205" fillId="0" borderId="1205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1206" fillId="0" borderId="1206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1207" fillId="0" borderId="1207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1208" fillId="0" borderId="1208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1209" fillId="0" borderId="1209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1210" fillId="0" borderId="1210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1211" fillId="0" borderId="1211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1212" fillId="0" borderId="1212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1213" fillId="0" borderId="1213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1214" fillId="0" borderId="1214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1215" fillId="0" borderId="1215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1216" fillId="0" borderId="1216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1217" fillId="0" borderId="1217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1218" fillId="0" borderId="1218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1219" fillId="0" borderId="1219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1220" fillId="0" borderId="1220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1221" fillId="0" borderId="1221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1222" fillId="0" borderId="1222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1223" fillId="0" borderId="1223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1224" fillId="0" borderId="1224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1225" fillId="0" borderId="1225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1226" fillId="0" borderId="1226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1227" fillId="0" borderId="1227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1228" fillId="0" borderId="1228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1229" fillId="0" borderId="1229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1230" fillId="0" borderId="1230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1231" fillId="0" borderId="1231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1232" fillId="0" borderId="1232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1233" fillId="0" borderId="1233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1234" fillId="0" borderId="1234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1235" fillId="0" borderId="1235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1236" fillId="0" borderId="1236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1237" fillId="0" borderId="1237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1238" fillId="0" borderId="1238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1239" fillId="0" borderId="1239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1240" fillId="0" borderId="1240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1241" fillId="0" borderId="1241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1242" fillId="0" borderId="1242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1243" fillId="0" borderId="1243" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1244" fillId="0" borderId="1244" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1245" fillId="0" borderId="1245" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1246" fillId="0" borderId="1246" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1247" fillId="0" borderId="1247" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1248" fillId="0" borderId="1248" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1249" fillId="0" borderId="1249" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1250" fillId="0" borderId="1250" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1251" fillId="0" borderId="1251" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1252" fillId="0" borderId="1252" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1253" fillId="0" borderId="1253" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1254" fillId="0" borderId="1254" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1255" fillId="0" borderId="1255" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1256" fillId="0" borderId="1256" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1257" fillId="0" borderId="1257" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1258" fillId="0" borderId="1258" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1259" fillId="0" borderId="1259" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1260" fillId="0" borderId="1260" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1261" fillId="0" borderId="1261" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1262" fillId="0" borderId="1262" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1263" fillId="0" borderId="1263" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1264" fillId="0" borderId="1264" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1265" fillId="0" borderId="1265" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1266" fillId="0" borderId="1266" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1267" fillId="0" borderId="1267" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1268" fillId="0" borderId="1268" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1269" fillId="0" borderId="1269" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1270" fillId="0" borderId="1270" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1271" fillId="0" borderId="1271" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1272" fillId="0" borderId="1272" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1273" fillId="0" borderId="1273" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1274" fillId="0" borderId="1274" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1275" fillId="0" borderId="1275" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1276" fillId="0" borderId="1276" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1277" fillId="0" borderId="1277" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1278" fillId="0" borderId="1278" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1279" fillId="0" borderId="1279" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1280" fillId="0" borderId="1280" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1281" fillId="0" borderId="1281" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1282" fillId="0" borderId="1282" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1283" fillId="0" borderId="1283" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1284" fillId="0" borderId="1284" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1285" fillId="0" borderId="1285" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1286" fillId="0" borderId="1286" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1287" fillId="0" borderId="1287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1288" fillId="0" borderId="1288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1289" fillId="0" borderId="1289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1290" fillId="0" borderId="1290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1291" fillId="0" borderId="1291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1292" fillId="0" borderId="1292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1293" fillId="0" borderId="1293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1294" fillId="0" borderId="1294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1295" fillId="0" borderId="1295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1296" fillId="0" borderId="1296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1297" fillId="0" borderId="1297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1298" fillId="0" borderId="1298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1299" fillId="0" borderId="1299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1300" fillId="0" borderId="1300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1301" fillId="0" borderId="1301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1302" fillId="0" borderId="1302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1303" fillId="0" borderId="1303" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1304" fillId="0" borderId="1304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1305" fillId="0" borderId="1305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1306" fillId="0" borderId="1306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1307" fillId="0" borderId="1307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1308" fillId="0" borderId="1308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1309" fillId="0" borderId="1309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1310" fillId="0" borderId="1310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1311" fillId="0" borderId="1311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1312" fillId="0" borderId="1312" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1313" fillId="0" borderId="1313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1314" fillId="0" borderId="1314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1315" fillId="0" borderId="1315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1316" fillId="0" borderId="1316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1317" fillId="0" borderId="1317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1318" fillId="0" borderId="1318" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1319" fillId="0" borderId="1319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1320" fillId="0" borderId="1320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1321" fillId="0" borderId="1321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1322" fillId="0" borderId="1322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1323" fillId="0" borderId="1323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1324" fillId="0" borderId="1324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1325" fillId="0" borderId="1325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1326" fillId="0" borderId="1326" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1327" fillId="0" borderId="1327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1328" fillId="0" borderId="1328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1329" fillId="0" borderId="1329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1330" fillId="0" borderId="1330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1331" fillId="0" borderId="1331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1332" fillId="0" borderId="1332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1333" fillId="0" borderId="1333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1334" fillId="0" borderId="1334" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1335" fillId="0" borderId="1335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1336" fillId="0" borderId="1336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1337" fillId="0" borderId="1337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1338" fillId="0" borderId="1338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1339" fillId="0" borderId="1339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1340" fillId="0" borderId="1340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1341" fillId="0" borderId="1341" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1342" fillId="0" borderId="1342" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1343" fillId="0" borderId="1343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1344" fillId="0" borderId="1344" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1345" fillId="0" borderId="1345" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1346" fillId="0" borderId="1346" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1347" fillId="0" borderId="1347" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1348" fillId="0" borderId="1348" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1349" fillId="0" borderId="1349" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1350" fillId="0" borderId="1350" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1351" fillId="0" borderId="1351" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1352" fillId="0" borderId="1352" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1353" fillId="0" borderId="1353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1354" fillId="0" borderId="1354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1355" fillId="0" borderId="1355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1356" fillId="0" borderId="1356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1357" fillId="0" borderId="1357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1358" fillId="0" borderId="1358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1359" fillId="0" borderId="1359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1360" fillId="0" borderId="1360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1361" fillId="0" borderId="1361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1362" fillId="0" borderId="1362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1363" fillId="0" borderId="1363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1364" fillId="0" borderId="1364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1365" fillId="0" borderId="1365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1366" fillId="0" borderId="1366" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1367" fillId="0" borderId="1367" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1368" fillId="0" borderId="1368" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1369" fillId="0" borderId="1369" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1370" fillId="0" borderId="1370" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1371" fillId="0" borderId="1371" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1372" fillId="0" borderId="1372" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1373" fillId="0" borderId="1373" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1374" fillId="0" borderId="1374" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1375" fillId="0" borderId="1375" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1376" fillId="0" borderId="1376" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1377" fillId="0" borderId="1377" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1378" fillId="0" borderId="1378" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1379" fillId="0" borderId="1379" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1380" fillId="0" borderId="1380" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1381" fillId="0" borderId="1381" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1382" fillId="0" borderId="1382" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1383" fillId="0" borderId="1383" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1384" fillId="0" borderId="1384" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1385" fillId="0" borderId="1385" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1386" fillId="0" borderId="1386" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1387" fillId="0" borderId="1387" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1388" fillId="0" borderId="1388" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1389" fillId="0" borderId="1389" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1390" fillId="0" borderId="1390" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1391" fillId="0" borderId="1391" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1392" fillId="0" borderId="1392" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1393" fillId="0" borderId="1393" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1394" fillId="0" borderId="1394" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1395" fillId="0" borderId="1395" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1396" fillId="0" borderId="1396" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1397" fillId="0" borderId="1397" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1398" fillId="0" borderId="1398" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1399" fillId="0" borderId="1399" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1400" fillId="0" borderId="1400" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1401" fillId="0" borderId="1401" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1402" fillId="0" borderId="1402" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1403" fillId="0" borderId="1403" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1404" fillId="0" borderId="1404" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1405" fillId="0" borderId="1405" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1406" fillId="0" borderId="1406" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1407" fillId="0" borderId="1407" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1408" fillId="0" borderId="1408" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1409" fillId="0" borderId="1409" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1410" fillId="0" borderId="1410" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1411" fillId="0" borderId="1411" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1412" fillId="0" borderId="1412" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1413" fillId="0" borderId="1413" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1414" fillId="0" borderId="1414" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1415" fillId="0" borderId="1415" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1416" fillId="0" borderId="1416" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1417" fillId="0" borderId="1417" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1418" fillId="0" borderId="1418" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1419" fillId="0" borderId="1419" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1420" fillId="0" borderId="1420" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1421" fillId="0" borderId="1421" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1422" fillId="0" borderId="1422" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1423" fillId="0" borderId="1423" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1424" fillId="0" borderId="1424" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1425" fillId="0" borderId="1425" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1426" fillId="0" borderId="1426" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1427" fillId="0" borderId="1427" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1428" fillId="0" borderId="1428" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1429" fillId="0" borderId="1429" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1430" fillId="0" borderId="1430" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1431" fillId="0" borderId="1431" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1432" fillId="0" borderId="1432" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1433" fillId="0" borderId="1433" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1434" fillId="0" borderId="1434" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1435" fillId="0" borderId="1435" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1436" fillId="0" borderId="1436" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1437" fillId="0" borderId="1437" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1438" fillId="0" borderId="1438" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1439" fillId="0" borderId="1439" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1440" fillId="0" borderId="1440" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -16324,36 +21724,36 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="991">
+      <c r="B3" s="1351">
         <v>9.6380706707266732</v>
       </c>
-      <c r="C3" s="992">
+      <c r="C3" s="1352">
         <v>9.5186969843242917</v>
       </c>
-      <c r="D3" s="993">
+      <c r="D3" s="1353">
         <v>9.5475155688865794</v>
       </c>
-      <c r="E3" s="994">
+      <c r="E3" s="1354">
         <v>9.6337012082721465</v>
       </c>
-      <c r="F3" s="995">
+      <c r="F3" s="1355">
         <v>9.5837188931499799</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="996">
+      <c r="B4" s="1356">
         <v>0.26042761636716771</v>
       </c>
-      <c r="C4" s="997">
+      <c r="C4" s="1357">
         <v>0.49666635781419571</v>
       </c>
-      <c r="D4" s="998">
+      <c r="D4" s="1358">
         <v>0.40727922329616129</v>
       </c>
-      <c r="E4" s="999">
+      <c r="E4" s="1359">
         <v>0.36515612307660439</v>
       </c>
-      <c r="F4" s="1000">
+      <c r="F4" s="1360">
         <v>0.39654580355128849</v>
       </c>
     </row>
@@ -16361,36 +21761,36 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1001">
+      <c r="B5" s="1361">
         <v>9.7052997831443992</v>
       </c>
-      <c r="C5" s="1002">
+      <c r="C5" s="1362">
         <v>9.6226980044380692</v>
       </c>
-      <c r="D5" s="1003">
+      <c r="D5" s="1363">
         <v>9.6066909054953289</v>
       </c>
-      <c r="E5" s="1004">
+      <c r="E5" s="1364">
         <v>9.7206118665768582</v>
       </c>
-      <c r="F5" s="1005">
+      <c r="F5" s="1365">
         <v>9.6715036659064548</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="1006">
+      <c r="B6" s="1366">
         <v>0.2350353759531299</v>
       </c>
-      <c r="C6" s="1007">
+      <c r="C6" s="1367">
         <v>0.43499523134502133</v>
       </c>
-      <c r="D6" s="1008">
+      <c r="D6" s="1368">
         <v>0.35930166761496463</v>
       </c>
-      <c r="E6" s="1009">
+      <c r="E6" s="1369">
         <v>0.32335825147039787</v>
       </c>
-      <c r="F6" s="1010">
+      <c r="F6" s="1370">
         <v>0.34012713364241731</v>
       </c>
     </row>
@@ -16398,36 +21798,36 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1011">
+      <c r="B7" s="1371">
         <v>9.6552037587342561</v>
       </c>
-      <c r="C7" s="1012">
+      <c r="C7" s="1372">
         <v>9.5440462154998045</v>
       </c>
-      <c r="D7" s="1013">
+      <c r="D7" s="1373">
         <v>9.5712777431125389</v>
       </c>
-      <c r="E7" s="1014">
+      <c r="E7" s="1374">
         <v>9.6523423375496407</v>
       </c>
-      <c r="F7" s="1015">
+      <c r="F7" s="1375">
         <v>9.6056123028611395</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="1016">
+      <c r="B8" s="1376">
         <v>0.25272943333373921</v>
       </c>
-      <c r="C8" s="1017">
+      <c r="C8" s="1377">
         <v>0.4830004318568743</v>
       </c>
-      <c r="D8" s="1018">
+      <c r="D8" s="1378">
         <v>0.39197607959816172</v>
       </c>
-      <c r="E8" s="1019">
+      <c r="E8" s="1379">
         <v>0.36164436726926968</v>
       </c>
-      <c r="F8" s="1020">
+      <c r="F8" s="1380">
         <v>0.38457454868251079</v>
       </c>
     </row>
@@ -16440,36 +21840,36 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1021">
+      <c r="B11" s="1381">
         <v>9.7203642662371568</v>
       </c>
-      <c r="C11" s="1022">
+      <c r="C11" s="1382">
         <v>9.6592710542291496</v>
       </c>
-      <c r="D11" s="1023">
+      <c r="D11" s="1383">
         <v>9.6571675937876016</v>
       </c>
-      <c r="E11" s="1024">
+      <c r="E11" s="1384">
         <v>9.7176574274531937</v>
       </c>
-      <c r="F11" s="1025">
+      <c r="F11" s="1385">
         <v>9.6881915937309131</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="1026">
+      <c r="B12" s="1386">
         <v>0.1814209911918174</v>
       </c>
-      <c r="C12" s="1027">
+      <c r="C12" s="1387">
         <v>0.36141956452213159</v>
       </c>
-      <c r="D12" s="1028">
+      <c r="D12" s="1388">
         <v>0.30401734979093559</v>
       </c>
-      <c r="E12" s="1029">
+      <c r="E12" s="1389">
         <v>0.30229345024602539</v>
       </c>
-      <c r="F12" s="1030">
+      <c r="F12" s="1390">
         <v>0.29729419245108019</v>
       </c>
     </row>
@@ -16477,36 +21877,36 @@
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1031">
+      <c r="B13" s="1391">
         <v>9.7557381386707203</v>
       </c>
-      <c r="C13" s="1032">
+      <c r="C13" s="1392">
         <v>9.702831666105654</v>
       </c>
-      <c r="D13" s="1033">
+      <c r="D13" s="1393">
         <v>9.6771989887773397</v>
       </c>
-      <c r="E13" s="1034">
+      <c r="E13" s="1394">
         <v>9.7678320482146344</v>
       </c>
-      <c r="F13" s="1035">
+      <c r="F13" s="1395">
         <v>9.7319010649766504</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="1036">
+      <c r="B14" s="1396">
         <v>0.18282626616245831</v>
       </c>
-      <c r="C14" s="1037">
+      <c r="C14" s="1397">
         <v>0.35462836436246292</v>
       </c>
-      <c r="D14" s="1038">
+      <c r="D14" s="1398">
         <v>0.28763837775054019</v>
       </c>
-      <c r="E14" s="1039">
+      <c r="E14" s="1399">
         <v>0.26824340348921499</v>
       </c>
-      <c r="F14" s="1040">
+      <c r="F14" s="1400">
         <v>0.27532817340682791</v>
       </c>
     </row>
@@ -16514,36 +21914,36 @@
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1041">
+      <c r="B15" s="1401">
         <v>9.7278352062136104</v>
       </c>
-      <c r="C15" s="1042">
+      <c r="C15" s="1402">
         <v>9.6674673622097114</v>
       </c>
-      <c r="D15" s="1043">
+      <c r="D15" s="1403">
         <v>9.666287063501839</v>
       </c>
-      <c r="E15" s="1044">
+      <c r="E15" s="1404">
         <v>9.7273291211912092</v>
       </c>
-      <c r="F15" s="1045">
+      <c r="F15" s="1405">
         <v>9.6971516073198707</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="1046">
+      <c r="B16" s="1406">
         <v>0.1806886840386743</v>
       </c>
-      <c r="C16" s="1047">
+      <c r="C16" s="1407">
         <v>0.36232392485153642</v>
       </c>
-      <c r="D16" s="1048">
+      <c r="D16" s="1408">
         <v>0.2966987293095526</v>
       </c>
-      <c r="E16" s="1049">
+      <c r="E16" s="1409">
         <v>0.30253054877687457</v>
       </c>
-      <c r="F16" s="1050">
+      <c r="F16" s="1410">
         <v>0.29471261062325249</v>
       </c>
     </row>
@@ -16556,36 +21956,36 @@
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1051">
+      <c r="B19" s="1411">
         <v>9.3884366916893587</v>
       </c>
-      <c r="C19" s="1052">
+      <c r="C19" s="1412">
         <v>9.0935576650749237</v>
       </c>
-      <c r="D19" s="1053">
+      <c r="D19" s="1413">
         <v>9.2171754268934158</v>
       </c>
-      <c r="E19" s="1054">
+      <c r="E19" s="1414">
         <v>9.376201476086278</v>
       </c>
-      <c r="F19" s="1055">
+      <c r="F19" s="1415">
         <v>9.2667296621186281</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="1056">
+      <c r="B20" s="1416">
         <v>0.30143748790118918</v>
       </c>
-      <c r="C20" s="1057">
+      <c r="C20" s="1417">
         <v>0.59764772734486604</v>
       </c>
-      <c r="D20" s="1058">
+      <c r="D20" s="1418">
         <v>0.49175963446265458</v>
       </c>
-      <c r="E20" s="1059">
+      <c r="E20" s="1419">
         <v>0.4172754318155088</v>
       </c>
-      <c r="F20" s="1060">
+      <c r="F20" s="1420">
         <v>0.48228957882927209</v>
       </c>
     </row>
@@ -16593,36 +21993,36 @@
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="1061">
+      <c r="B21" s="1421">
         <v>9.442718709690098</v>
       </c>
-      <c r="C21" s="1062">
+      <c r="C21" s="1422">
         <v>9.1630114510094476</v>
       </c>
-      <c r="D21" s="1063">
+      <c r="D21" s="1423">
         <v>9.2838437860263987</v>
       </c>
-      <c r="E21" s="1064">
+      <c r="E21" s="1424">
         <v>9.4598318466393785</v>
       </c>
-      <c r="F21" s="1065">
+      <c r="F21" s="1425">
         <v>9.3538010207974178</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="1066">
+      <c r="B22" s="1426">
         <v>0.29444034937805219</v>
       </c>
-      <c r="C22" s="1067">
+      <c r="C22" s="1427">
         <v>0.55272470188025125</v>
       </c>
-      <c r="D22" s="1068">
+      <c r="D22" s="1428">
         <v>0.46329963064702079</v>
       </c>
-      <c r="E22" s="1069">
+      <c r="E22" s="1429">
         <v>0.45225439848912269</v>
       </c>
-      <c r="F22" s="1070">
+      <c r="F22" s="1430">
         <v>0.45321172274493032</v>
       </c>
     </row>
@@ -16630,36 +22030,36 @@
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1071">
+      <c r="B23" s="1431">
         <v>9.393855995943861</v>
       </c>
-      <c r="C23" s="1072">
+      <c r="C23" s="1432">
         <v>9.0979359440239769</v>
       </c>
-      <c r="D23" s="1073">
+      <c r="D23" s="1433">
         <v>9.2292265172116554</v>
       </c>
-      <c r="E23" s="1074">
+      <c r="E23" s="1434">
         <v>9.3819593255259193</v>
       </c>
-      <c r="F23" s="1075">
+      <c r="F23" s="1435">
         <v>9.2756425555333326</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="1076">
+      <c r="B24" s="1436">
         <v>0.29823661892134129</v>
       </c>
-      <c r="C24" s="1077">
+      <c r="C24" s="1437">
         <v>0.58988382655647986</v>
       </c>
-      <c r="D24" s="1078">
+      <c r="D24" s="1438">
         <v>0.49029870183641933</v>
       </c>
-      <c r="E24" s="1079">
+      <c r="E24" s="1439">
         <v>0.42306902994509399</v>
       </c>
-      <c r="F24" s="1080">
+      <c r="F24" s="1440">
         <v>0.47838655730232382</v>
       </c>
     </row>
